--- a/FileString/FSANDROID/TestSuite/Android/Data.xlsx
+++ b/FileString/FSANDROID/TestSuite/Android/Data.xlsx
@@ -5,14 +5,36 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenDuyLinh\FSAndroid\FileString.Git.AT\FSANDROID\TestSuite\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenDuyLinh\FSAndroidClone\FSANDROID\FileString\FSANDROID\TestSuite\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8280" tabRatio="890" firstSheet="3" activeTab="22"/>
   </bookViews>
   <sheets>
-    <sheet name="1234" sheetId="1" r:id="rId1"/>
+    <sheet name="0000" sheetId="5" r:id="rId1"/>
+    <sheet name="0001" sheetId="1" r:id="rId2"/>
+    <sheet name="0002" sheetId="2" r:id="rId3"/>
+    <sheet name="0003" sheetId="3" r:id="rId4"/>
+    <sheet name="0004" sheetId="4" r:id="rId5"/>
+    <sheet name="0005" sheetId="6" r:id="rId6"/>
+    <sheet name="0006" sheetId="7" r:id="rId7"/>
+    <sheet name="0007" sheetId="8" r:id="rId8"/>
+    <sheet name="0008" sheetId="9" r:id="rId9"/>
+    <sheet name="0009" sheetId="10" r:id="rId10"/>
+    <sheet name="0010" sheetId="11" r:id="rId11"/>
+    <sheet name="0011" sheetId="12" r:id="rId12"/>
+    <sheet name="0012" sheetId="13" r:id="rId13"/>
+    <sheet name="0013" sheetId="14" r:id="rId14"/>
+    <sheet name="0014" sheetId="15" r:id="rId15"/>
+    <sheet name="0015" sheetId="16" r:id="rId16"/>
+    <sheet name="0016" sheetId="17" r:id="rId17"/>
+    <sheet name="0017" sheetId="18" r:id="rId18"/>
+    <sheet name="0018" sheetId="19" r:id="rId19"/>
+    <sheet name="0019" sheetId="20" r:id="rId20"/>
+    <sheet name="0020" sheetId="21" r:id="rId21"/>
+    <sheet name="0021" sheetId="22" r:id="rId22"/>
+    <sheet name="0022" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>sta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="43">
   <si>
     <t>Message</t>
   </si>
@@ -47,7 +66,115 @@
     <t>Title</t>
   </si>
   <si>
-    <t>sta25.115@yopmail.com</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>staandroid</t>
+  </si>
+  <si>
+    <t>Service is temporarily unavailable</t>
+  </si>
+  <si>
+    <t>We apologize for this inconvenience. Please try again later.</t>
+  </si>
+  <si>
+    <t>Title sign up unavailable</t>
+  </si>
+  <si>
+    <t>Message sign up unavailable</t>
+  </si>
+  <si>
+    <t>secondaryunverify</t>
+  </si>
+  <si>
+    <t>staandroidnewemail@yopmail.com</t>
+  </si>
+  <si>
+    <t>newemail</t>
+  </si>
+  <si>
+    <t>Primary email</t>
+  </si>
+  <si>
+    <t>staandroidprimaryverify@yopmail.com</t>
+  </si>
+  <si>
+    <t>staandroidsecondunverify@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    staandroidnewemail@yopmail.com   </t>
+  </si>
+  <si>
+    <t>staandroidreceivedfile@yopmail.com</t>
+  </si>
+  <si>
+    <t>receivedfile</t>
+  </si>
+  <si>
+    <t>staandroidspecialpass@yopmail.com</t>
+  </si>
+  <si>
+    <t>specialpass</t>
+  </si>
+  <si>
+    <t>d!@#$%&lt;&gt;?</t>
+  </si>
+  <si>
+    <t>1234567890qwertyuiopasdfghjklzxcvbnm</t>
+  </si>
+  <si>
+    <t>1234abcd</t>
+  </si>
+  <si>
+    <t>staandroidnewemail</t>
+  </si>
+  <si>
+    <t>Invalid email address</t>
+  </si>
+  <si>
+    <t>Enter your email address in the format account@example.com.</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t>Choose a password of 4–36 characters.</t>
+  </si>
+  <si>
+    <t>1234567890qwertyuiopasdffghjklzxccvbnm,.,</t>
+  </si>
+  <si>
+    <t>staandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroidstaandroid</t>
+  </si>
+  <si>
+    <t>signedup</t>
+  </si>
+  <si>
+    <t>staandroidsignedup@yopmail.com</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>staandroidsecondary@yopmail.com</t>
+  </si>
+  <si>
+    <t>Email address is unavailable</t>
+  </si>
+  <si>
+    <t>Someone already uses this email address.</t>
+  </si>
+  <si>
+    <t>&lt; &gt; ? : " | * \ /</t>
+  </si>
+  <si>
+    <t>No Internet access</t>
+  </si>
+  <si>
+    <t>Please connect to a Wi-Fi or cellular network.</t>
   </si>
 </sst>
 </file>
@@ -384,32 +511,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>25.1</v>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,23 +929,1493 @@
         <v>1234</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="staandroidnewemail@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="101.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="staandroidnewemail@yopmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/FileString/FSANDROID/TestSuite/Android/Data.xlsx
+++ b/FileString/FSANDROID/TestSuite/Android/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenDuyLinh\FSAndroidClone\FSANDROID\FileString\FSANDROID\TestSuite\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenDuyLinh\FSAndroid\FileString.Git.AT\FileString\FSANDROID\TestSuite\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8280" tabRatio="890" firstSheet="3" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8280" tabRatio="890"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="44">
   <si>
     <t>Message</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Message sign up unavailable</t>
   </si>
   <si>
-    <t>secondaryunverify</t>
-  </si>
-  <si>
     <t>staandroidnewemail@yopmail.com</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>staandroidprimaryverify@yopmail.com</t>
   </si>
   <si>
-    <t>staandroidsecondunverify@yopmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">    staandroidnewemail@yopmail.com   </t>
   </si>
   <si>
@@ -175,6 +169,15 @@
   </si>
   <si>
     <t>Please connect to a Wi-Fi or cellular network.</t>
+  </si>
+  <si>
+    <t>staandroidsecondunvery@yopmail.com</t>
+  </si>
+  <si>
+    <t>secondaryunvery</t>
+  </si>
+  <si>
+    <t>staandroidnewemail01@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +534,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -539,7 +542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -593,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -601,7 +604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -757,7 +760,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -832,7 +835,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -840,7 +843,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -918,7 +921,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -942,7 +945,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1021,7 +1024,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1083,7 +1086,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1107,7 +1110,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1159,7 +1162,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1199,7 +1202,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1371,7 +1374,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1414,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1508,7 +1511,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1748,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1776,7 +1779,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1819,7 +1822,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1841,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1894,16 +1897,16 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2019,7 +2022,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -2380,7 +2383,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>

--- a/FileString/FSANDROID/TestSuite/Android/Data.xlsx
+++ b/FileString/FSANDROID/TestSuite/Android/Data.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="45">
   <si>
     <t>Message</t>
   </si>
@@ -171,13 +171,16 @@
     <t>Please connect to a Wi-Fi or cellular network.</t>
   </si>
   <si>
-    <t>staandroidsecondunvery@yopmail.com</t>
-  </si>
-  <si>
-    <t>secondaryunvery</t>
-  </si>
-  <si>
     <t>staandroidnewemail01@yopmail.com</t>
+  </si>
+  <si>
+    <t>staandroidsecondunverify@yopmail.com</t>
+  </si>
+  <si>
+    <t>secondaryunverify</t>
+  </si>
+  <si>
+    <t>test edit file and wait noti push to owner to update status ==&gt;</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -572,9 +575,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="staandroidnewemail@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,7 +1422,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1449,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1822,7 +1830,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1849,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -1849,7 +1857,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1917,7 +1925,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2184,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
